--- a/xlsx/_wiki_陡坡乡_intext.xlsx
+++ b/xlsx/_wiki_陡坡乡_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>陡坡乡</t>
   </si>
@@ -23,187 +23,178 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%99%A1%E5%9D%A1%E4%B9%A1</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>中华人民共和国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%B0%E5%8E%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9A%B0%E5%8E%BF</t>
   </si>
   <si>
     <t>隰县</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E7%BA%A7%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%A1%E7%BA%A7%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
   </si>
   <si>
     <t>乡级行政区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92%E4%BB%A3%E7%A0%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92%E4%BB%A3%E7%A0%81</t>
   </si>
   <si>
     <t>中华人民共和国行政区划代码</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
   </si>
   <si>
     <t>中国行政区划</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8C%BA_(%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A4%BE%E5%8C%BA_(%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92)</t>
   </si>
   <si>
     <t>社区 (行政区划)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%91</t>
   </si>
   <si>
     <t>村</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E7%BA%AC%E5%BA%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BB%8F%E7%BA%AC%E5%BA%A6</t>
   </si>
   <si>
     <t>经纬度</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7</t>
   </si>
   <si>
     <t>中华人民共和国电话区号</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
   </si>
   <si>
     <t>国际冠码</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>国际电话区号列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%B6%E5%8C%BA</t>
   </si>
   <si>
     <t>时区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/UTC%2B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/UTC%2B8</t>
   </si>
   <si>
     <t>UTC+8</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E6%97%B6%E9%97%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8C%97%E4%BA%AC%E6%97%B6%E9%97%B4</t>
   </si>
   <si>
     <t>北京时间</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%A5%BF%E7%9C%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B1%B1%E8%A5%BF%E7%9C%81</t>
   </si>
   <si>
     <t>山西省</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B4%E6%B1%BE%E5%B8%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%B4%E6%B1%BE%E5%B8%82</t>
   </si>
   <si>
     <t>临汾市</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%A1%E9%95%87</t>
   </si>
   <si>
     <t>乡镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%BB%9F%E8%AE%A1%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%BB%9F%E8%AE%A1%E5%B1%80</t>
   </si>
   <si>
     <t>中华人民共和国国家统计局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
   </si>
   <si>
     <t>行政区划</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92%E5%B0%8F%E4%BD%9C%E5%93%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/Template_talk:%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92%E5%B0%8F%E4%BD%9C%E5%93%81</t>
   </si>
   <si>
     <t>Template talk-行政区划小作品</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%BB%BA%E5%88%B6%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%8C%E6%94%BF%E5%BB%BA%E5%88%B6%E9%95%87</t>
   </si>
   <si>
     <t>行政建制镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BE%99%E6%B3%89%E9%95%87_(%E9%9A%B0%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BE%99%E6%B3%89%E9%95%87_(%E9%9A%B0%E5%8E%BF)</t>
   </si>
   <si>
     <t>龙泉镇 (隰县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%88%E5%9F%8E%E9%95%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%88%E5%9F%8E%E9%95%87</t>
   </si>
   <si>
     <t>午城镇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E5%9C%9F%E9%95%87_(%E9%9A%B0%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%84%E5%9C%9F%E9%95%87_(%E9%9A%B0%E5%8E%BF)</t>
   </si>
   <si>
     <t>黄土镇 (隰县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%B3%E5%A4%B4%E5%8D%87%E4%B9%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%B3%E5%A4%B4%E5%8D%87%E4%B9%A1</t>
   </si>
   <si>
     <t>阳头升乡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%A8%E5%AD%90%E4%B9%A1_(%E9%9A%B0%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AF%A8%E5%AD%90%E4%B9%A1_(%E9%9A%B0%E5%8E%BF)</t>
   </si>
   <si>
     <t>寨子乡 (隰县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E6%9D%8E%E4%B9%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%8B%E6%9D%8E%E4%B9%A1</t>
   </si>
   <si>
     <t>下李乡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%8D%97%E4%B9%A1_(%E9%9A%B0%E5%8E%BF)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9F%8E%E5%8D%97%E4%B9%A1_(%E9%9A%B0%E5%8E%BF)</t>
   </si>
   <si>
     <t>城南乡 (隰县)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%A5%BF%E7%9C%81%E4%B9%A1%E7%BA%A7%E4%BB%A5%E4%B8%8A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B1%B1%E8%A5%BF%E7%9C%81%E4%B9%A1%E7%BA%A7%E4%BB%A5%E4%B8%8A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>山西省乡级以上行政区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%A1%E5%9D%A1%E4%B9%A1</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -552,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,7 +844,7 @@
         <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1290,52 +1281,6 @@
         <v>59</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" t="n">
         <v>1</v>
       </c>
     </row>
